--- a/TweetsColetadosEducacao.xlsx
+++ b/TweetsColetadosEducacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sentimento</t>
+          <t>Sentimento1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sentimento2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SentimentoFinal</t>
         </is>
       </c>
     </row>
@@ -456,15 +466,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sat Jul 24 15:45:03 +0000 2021</t>
+          <t>Sat Jul 24 17:14:19 +0000 2021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REABRIU Anos depois do incêndio que destruiu seu inestimável acervo o Museu Da Língua Portuguesa volta a receber público. Descubra lá a magia das palabras e a origem secreta de termos como Molho Tarê, do livro Bíblia e da escova The Brush. #cultura #educação #leialivros https://t.co/u0NVt6lVZN</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Lamentamos o falecimento do ex-ministro de Ciência, Tecnologia e Inovações e ex-diretor do Parque Tecnológico, Marco Antonio Raupp, aos 83 anos. 
+https://t.co/mauP5TYx3U  
+#pqtecsjc #ciencia #tecnologia #educacao #inovacao
+16 min https://t.co/Rf5Lk6t0ba</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -472,46 +499,294 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Sat Jul 24 17:00:18 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>#EDUCAÇÃO |  📚 Prouni Recife abre inscrições a partir de segunda-feira (26) https://t.co/pYjknUnixz https://t.co/kpIYMKZZUf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:53:06 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Compartilhe esse post com seus amigos para eles não perderem!  
+Acesse o site e garanta a sua vaga agora mesmo! 👇
+https://t.co/EYCRJVp3wR 💙
+#SemanaDaEducaçãoDeUbatuba #CuidandoDoFuturo #Educação #Ubatuba 
+#ParaTodosVerem: O post possui texto alternativo nas imagens https://t.co/109hqhUXxU</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:18:32 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>@rosepaixao_on @jairbolsonaro Sempre #companheira, sempre estaremos #unidos nos #laços que jamais nos #separam: As #LutasSociais por um #Brasil #justo e #igualitário para todo o #PovoBrasileiro onde o #filho do #agricultor tenha as mesmas #condições de #educação do filho do #médico!!! #UnidosSomosMaisFortes! https://t.co/vjSGNsc4EC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:04:16 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No próximo sábado às 15h estarei online no Open Mic do TEDxMacedo. @tedxmacedo
+Falarei um pouquinho sobre aprendizagem e estrelas.
+Inscrições em https://t.co/4v3xocQp47
+#educacao #aprendizagem https://t.co/XIbs8j9lsL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 16:02:13 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>“Só há duas opções nesta vida: se resignar ou se indignar. E eu não vou me resignar nunca".                                      
+Darcy Ribeiro
+#asvicdd #educacao #cidadania #amor #conhecimento #darcyribeiro</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:55:50 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Brasil: desde o séc. 17 escolhendo ficar para trás no quesito mais importante para o desenvolvimento humano: a educação.
+#Educacao #Escravidao #LaurentinoGomes https://t.co/clo1qFSgZd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 15:45:03 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REABRIU Anos depois do incêndio que destruiu seu inestimável acervo o Museu Da Língua Portuguesa volta a receber público. Descubra lá a magia das palabras e a origem secreta de termos como Molho Tarê, do livro Bíblia e da escova The Brush. #cultura #educação #leialivros https://t.co/u0NVt6lVZN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Sat Jul 24 15:43:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Enem 2021 possui 3,1 milhões de inscritos confirmados, menor número desde 2005.
 #enem #ensino #educacao #faroldabahia #inscritos #participantes 
 https://t.co/MXfX4OeeRK</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:33:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>'Abandonei meus filhos e escrevi um livro sobre como Educar crianças'. Quem é o cabra?
 https://t.co/PwTwu01zM2
 #TunelInsolitoDoTempo #Filosofia #Educacao #Rousseau #JeanJacquesRousseau #FacaOQueEuDigoNaoFacaOqueEuFaco</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:01:10 +0000 2021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Confira no Portal do Cenpec as 5 notícias da semana:
 ✔ https://t.co/LPDVTkRMF0
@@ -522,88 +797,158 @@
 #Cenpec #educação #Professores #Professoras https://t.co/s1qZfcdcTT</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:00:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>#EDUCAÇÃO ➡  Dia 2 de agosto. Essa deve ser a data para o retorno às aulas presenciais na rede municipal de ensino de Barueri. 
 Foi o que revelou o prefeito de Barueri, Rubens Furlan, com exclusividade ao Jornal de Barueri. 
 👉 Saiba mais em https://t.co/d3HM5F1Mhe⠀ https://t.co/B0rnpARfhb</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sat Jul 24 15:00:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Sabia que se quiser ter um resultado diferente, você precisa fazer diferente? Pois então! Saia da sua zona de conforto!
 #empreendedorismo #negócios #frase #sucesso #business #educação #curso #desconforto #motivação #mei #geracaodevalor #marketingdigital #frases https://t.co/RNv5GZ8lFy</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:59:41 +0000 2021</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Lei de cotas para pessoas com deficiência completa 30 anos 
 #educação #direitoshumanos 
 https://t.co/ZRDas8ZvAk</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Sat Jul 24 14:33:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Tire as suas conclusões !           #vestibular #enem #sisu #passei #dicaslegais #educacao
 #recife #professores #ssa #upe #pernambucomeupaís em Recife, Brazil https://t.co/LadalpI1JY</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:49:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Não percam!!
 Hoje 24/7 às 11h teremos uma excelente webinar com direito a certificado. PARTICIPE 😃
@@ -611,35 +956,63 @@
 #eniac #ead #graduação #sjc #tecnologia #webinar #faculdade #educação #ensino #adistancia #polosjc #futuro #profissional https://t.co/o1fMiblaLR</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:11:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>O futuro da educação a distância após a pandemia: https://t.co/DOfhzfADzc
 #ead #educação #futuro #carreiras #brasil</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:05:22 +0000 2021</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Aprenda a utilizar mangás  como  ferramenta 
 de ensino  em salas de aula  
@@ -648,105 +1021,189 @@
 #minutootaku #minutootakubr #otaku #mangás #ensino #saladeaula #educação #pedagogia https://t.co/405CnMcPyX</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Sat Jul 24 13:00:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Não deixe que as pessoas te façam desistir daquilo que você mais quer na vida. Acredite. Lute. Conquiste. E acima de tudo, seja feliz!
 #multivix #universidade #faculdade #facul #educacao #estudante #bauru #multivix_bauru #ead #ensinoadistancia #vestibular #estudeemcasa https://t.co/RUxEK9zJBM</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:43:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>#Educação | Governo do RS vai oferecer 4º ano do Ensino Médio a partir de janeiro | Saiba mais em https://t.co/5kmyVB7gL5</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:30:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>EDUCAÇÃO |Primeira chamada já está disponível no site; matrículas on-line devem ser feitas na segunda (26) e terça-feira (27)
 .
 #Adamantina #Educação #Impacto https://t.co/cIKZkxvQ9A</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Sat Jul 24 12:17:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Podcast: direitos e deveres na volta as aulas durante a pandemia.
 #podcast #direito #deveres #aulas #educacao #ensino #faroldabahia #justica 
 https://t.co/an6iQC2cfW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:41:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Documento afirma que critérios objetivos para retorno das atividades não foram definidos e atual formato de atendimentos semanais não é uma modalidade regular de ensino
 #cbnlondrina #Londrina #educacao
  https://t.co/gSzX51ilyM</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Sat Jul 24 11:00:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Que tal intensificar essa prática? 😉⠀
 .
@@ -755,18 +1212,32 @@
 #faculdade #estudos #ead #direito #governancacorporativa #vestibular #educa #segurancapublica #estudante #pedagogia #graduacao #gestaopublica #estudar #posgraduacao  #educacao  #ensino #logistica #study https://t.co/ovqzlBGZre</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:14:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Foi ontem entregue o novo Campus Universitário da UNICV
 https://t.co/CkgM7GTpw2 
@@ -774,52 +1245,94 @@
 #caboverde #educação https://t.co/EhzWlSfdMp</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Sat Jul 24 10:00:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Espanhol para Viagens | Curso de Espanhol para Brasileiros | 100%online | rápido | fácil | professores nativos da Espanha #espanhol #educacao 
 Saiba mais em https://t.co/bN1tYh1OqY https://t.co/0uTJQRrBRf</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:38:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>" A ética é uma fonte cristalina de vida. O sábio bebe dessa fonte e ilumina os caminhos do mundo. " 
 #Consciência #ResponsabilidadeSocial #educação https://t.co/0jC220kGMv</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Sat Jul 24 07:32:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Evento de capacitação e tratamentos de feridas.
 #curativoscuidadodomiciliar.
@@ -828,18 +1341,32 @@
 Anuncia https://t.co/2OukEB5aDV</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Sat Jul 24 05:46:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Da série "Você acha que isso está #acontecendo no #Brasil" ? - 
 https://t.co/XIxD7ZQAD8 - ou - 
@@ -848,34 +1375,62 @@
 [ Já esteve aqui. É tão bom que voltou ] - 2019 - [FB] -</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sat Jul 24 05:09:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Senai abre inscrições com 465 vagas para bolsas de estudo em cursos técnicos gratuitos | | https://t.co/rLg6L8NaL9 #Brasil #educaçao #formaçao</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Sat Jul 24 02:41:36 +0000 2021</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Rede Municipal de Ensino se prepara para retorno das aulas presenciais em agosto
 https://t.co/vLzMt9INps
@@ -884,119 +1439,21 @@
 #portalpiranews #prefeituradepiracicaba #educacao #secretariadeeducacaodepiracicaba #piracicaba #retornoaaulas #agosto #voltaaaulas https://t.co/fPqa8vVcNe</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:27:04 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Inscrições para exame de certificação de estudantes concluintes do Ensino Médio de 2020 começam nesta segunda https://t.co/WmtfiDUJYQ #Bahia #Destaques #Educação https://t.co/rPXP19REJ0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:27:04 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>#Bahia #Destaques #Educação Inscrições para exame de certificação de estudantes concluintes do Ensino Médio de 2020 começam nesta segunda https://t.co/7hrqtOKe0O https://t.co/g4oD488Rhg</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:20:33 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Minotouro apresentou livro infantil sobre esporte e educação para prefeita de Vitória da Conquista https://t.co/plocnv2mWf #ConquistaeRegião #Destaques #Educação https://t.co/NvbtKDFfGv</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:20:33 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>#ConquistaeRegião #Destaques #Educação Minotouro apresentou livro infantil sobre esporte e educação para prefeita de Vitória da Conquista https://t.co/5ZKzuWE3ET https://t.co/B75iaCRDOg</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:06:34 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Estudantes terão uma refeição a mais com o início do ensino híbrido da rede estadual https://t.co/G8IjGtkmo3 #Bahia #Destaques #Educação https://t.co/wTv5O7CVWo</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 02:06:34 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>#Bahia #Destaques #Educação Estudantes terão uma refeição a mais com o início do ensino híbrido da rede estadual https://t.co/1AYDOpvUgf https://t.co/U5OFXnaLmN</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sat Jul 24 00:59:30 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Autorresponsabilidade: um conceito poderoso para a realização de suas metas. #autorresponsabilidade #gestaoescolar #gestaoestrategica #autoestima #autoconhecimento #Educacao #pedagogia #conhecimento  #gestaodepessoas #saber https://t.co/ReMbvMSl7H</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1004,60 +1461,312 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Sat Jul 24 02:27:04 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Inscrições para exame de certificação de estudantes concluintes do Ensino Médio de 2020 começam nesta segunda https://t.co/WmtfiDUJYQ #Bahia #Destaques #Educação https://t.co/rPXP19REJ0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 02:27:04 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>#Bahia #Destaques #Educação Inscrições para exame de certificação de estudantes concluintes do Ensino Médio de 2020 começam nesta segunda https://t.co/7hrqtOKe0O https://t.co/g4oD488Rhg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 02:20:33 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Minotouro apresentou livro infantil sobre esporte e educação para prefeita de Vitória da Conquista https://t.co/plocnv2mWf #ConquistaeRegião #Destaques #Educação https://t.co/NvbtKDFfGv</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 02:20:33 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>#ConquistaeRegião #Destaques #Educação Minotouro apresentou livro infantil sobre esporte e educação para prefeita de Vitória da Conquista https://t.co/5ZKzuWE3ET https://t.co/B75iaCRDOg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 02:06:34 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Estudantes terão uma refeição a mais com o início do ensino híbrido da rede estadual https://t.co/G8IjGtkmo3 #Bahia #Destaques #Educação https://t.co/wTv5O7CVWo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 02:06:34 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>#Bahia #Destaques #Educação Estudantes terão uma refeição a mais com o início do ensino híbrido da rede estadual https://t.co/1AYDOpvUgf https://t.co/U5OFXnaLmN</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sat Jul 24 00:59:30 +0000 2021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Autorresponsabilidade: um conceito poderoso para a realização de suas metas. #autorresponsabilidade #gestaoescolar #gestaoestrategica #autoestima #autoconhecimento #Educacao #pedagogia #conhecimento  #gestaodepessoas #saber https://t.co/ReMbvMSl7H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Sat Jul 24 00:30:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>ITA levará inteligência artificial à escola fundamental
 https://t.co/2K7ztEhgxl
 #inteligenciaartificial #tech #educacao #aprendizado</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:04:38 +0000 2021</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>#Educação. Felipe Camarão apresenta regras para retorno às aulas na rede estadual https://t.co/WfysdFYmS0</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:00:34 +0000 2021</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Essa 1° semana do 2° semestre na escola foi resumida em: Reunião Pedagógica, Palestra do "Nova Visão Educacional", Planejamentos (BNCC), organização das turmas para provável volta das aulas presencial, ou seja, só correria... 👩‍🏫🍃✨ #pedagoga #educação</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Sat Jul 24 00:00:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Blocos lógicos LDM fabricados em espuma, diferente dos tradicionais em madeira, evitam acidentes com arremesso de peças, por serem peças leves, e por grandes.
 Compre Aqui:
@@ -1065,53 +1774,95 @@
 #brinquedos #brinquedoseducativos #brinquedospedagógicos #educação https://t.co/CuLwLbc2XP</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:45:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Como evitar que meu filho se torne gay? Assista https://t.co/Z1K7NyCyLl
 Siga @FabricioViana
 #pai #papai #orgulho #paternidade #família #filho #filha #educacao #escola #mamae #educadores #professores #lgbtfobia #homofobia #gay #gays #gaybrasil #gaysaopaulo #ficadica #encontro https://t.co/dEG4iaI0iz</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:42:50 +0000 2021</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Foram cinco intensos dias de minicurso. Contribuição do @mapfireproject para o fortalecimento de eixos do sistema de alerta, em especial os eixos de #Educacão e #Monitoramento. Contamos com #engajamento de equipes de brigadistas e voluntários para projetar planos de #ação! 
 #fire https://t.co/KUWNGc216a</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:30:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Estudar é algo que jamais devemos fazer.
 Sempre podemos aprender algo novo, nos desenvolver!
@@ -1120,153 +1871,279 @@
 #determinacao #inspiracao #motivacao  #vencer #superacao #forçadevontade #conhecimento #educação #mentalidade #liderança https://t.co/0bG8i5gmQ1</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:30:14 +0000 2021</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>📣 New Podcast! "EDUCAÇÃO (parte 1) com Daltro Garcia" on @Spreaker #crianca #daltrojardim #educacao #radioilhacapital #agora_rs https://t.co/sfkXD6u77r</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:30:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>📚 Tire um tempinho hoje para conferir nossa biblioteca digital com livros sobre #inovação, cobertura de #migração, #jornalismo, #educação e muito mais 
 https://t.co/zCsUKCWvI1</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:25:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Garanta já suas aulas de inglês com certificado e material incluso. DUAS aulas na semana. Professor ao vivo.Por apenas 99 por mês. 
 #ingles #cursosonline #inglesonline #Educacao #aulas #enem2021 #linguainglesa #literatura #pequenasempresas #Online https://t.co/M9TIsiq9DI</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:10:59 +0000 2021</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Ao menos 12 estados devem retomar as aulas presenciais em agosto.
 #aulas #presenciais #ensino #educacao #estados #faroldabahia 
 https://t.co/WHJBKHjq4W</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Fri Jul 23 23:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Você ainda tem dúvida sobre o decreto de governança? Veja algumas respostas para as principais dúvidas!
 ⠀⠀⠀⠀⠀⠀⠀⠀
 #quartasaovivo #governança #pesquisa #publicintelligence #inteligenciapública #educação https://t.co/PEyyNn9GMw</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:57:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Prepare-se para o vestibular com aulas 100% online! Ainda dá tempo, veeeem!!!
 #vestibular #enem2021  #unesp #usp #vunesp  #fuvest  #Educacao  #redação #portugues #matemática #física #Quimica https://t.co/jSqFRDzekL</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:23:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Geni Duarte, Florenço Mendes Varela, Crispina Mendes em: “Paulo Freire na África: Diálogos com Cabo Verde” #caboverde #paulofreire #educação #coletivopaulofreire https://t.co/iesOhiWR5G https://t.co/9Eaycbf97O</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:04:20 +0000 2021</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Programa vai contemplar redes estadual e municipais de ensino. #WilsonLima #Investimento #Educação https://t.co/kYWWcdsfp0</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Fri Jul 23 22:00:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>O que a inteligência artificial pode fazer pela educação?
 A educação foi um dos setores mais atingidos pela pandemia da Covid-19. Com o fechamento das...
@@ -1274,53 +2151,95 @@
 #educacao #inteligenciaartificial #ia #tecnologia #escola #digital  #infranewstelecom</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:59:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>💰Emendas parlamentares: mais de R$ 11,3 milhões serão investidos em #infraestrutura, #mobilidade, #saúde, #educação e #agricultura em 12 cidades.
 ✏️Educação- Entrega de R$214 mil e equipamentos para a região.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:30:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Como evitar que meu filho se torne gay? Assista https://t.co/TrE4aHxwFF
 Siga @FabricioViana
 #pai #papai #orgulho #paternidade #família #filho #filha #educacao #escola #mamae #educadores #professores #lgbtfobia #homofobia #gay #gays #gaybrasil #gaysaopaulo #ficadica #encontro https://t.co/h5SI1M1IRa</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:27:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Premonição? Ou será outra coisa?
 Comenta aí hehe. 
@@ -1328,187 +2247,341 @@
 #professor #professordebiologia #professorpardal #engenhoca #premonição #locadora #filmes #series #educação #educaçãoinfantil em Ituverava https://t.co/TvQHsxwi23</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:22:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Semana que vem tem conversa importante, divulgação científica. Vamos contar com o James do @ensinecast.
 https://t.co/z7e0OWNtm3
 #divulgacaocientifica #ciencia #educacao</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:11:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>#EnsaioTeórico O exercício da escrita e da escuta como instrumentos de aprimoramento da prática clínica https://t.co/edjW4ZIOJF
 #Educação #CiênciaAberta #CiênciaEmMovimento</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:09:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Como fazer perguntas no Brainly https://t.co/2YRqLsZue4 #educação https://t.co/nL02hdRsvS</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:08:17 +0000 2021</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Confira a nova entrevista do #UMBRASIL com o sociólogo Simon Schwartzman (@sschwartzman) sobre reforma do ensino médio, #ciencia, e a respeito de seu livro “Falso mineiro: memórias da política, ciência, #educação e sociedade”, lançado pela @intrinseca. https://t.co/DDokOV5nQR https://t.co/mqzdvJqK7C</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Fri Jul 23 21:00:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>A rede estadual de ensino anunciou para a próxima segunda-feira (26) o retorno das aulas para o segundo semestre letivo, que deverá ser no modelo híbrido (remoto e presencial) 
 Para saber mais acesse nosso link na bio!
 #educação #retomadaaulaspresenciais #redeestadualdeensino https://t.co/sOuKVKve2J</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:50:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Deseja ingressar na área de educação administrativa?  
 Conheça nossa Especialização em Gestão Educacional e Novas Tecnologias. Acesse agora o link - https://t.co/9TQ5Dn6QaE  e conheça mais sobre o curso. 
 #IEL #IELGO #IELGoias #Pós #Especialização #Gestão #MBA #Educação https://t.co/1IXkfsPsYD</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:45:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>#Educação | Sua monografia pode contribuir para a Defesa do Brasil! 🇧🇷
 Último dia para as inscrições para o Prêmio Santos Dumont 2021 sobre #DefesaNacional, uma parceria entre o Ministério da Defesa e o @MEC_Comunicacao. Saiba mais e inscreva-se!
 https://t.co/XSiqzKKKa3</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:44:40 +0000 2021</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>50+😜  A ausência de diálogo sócio familiar, as limitações do S XX, um balanço da vida, vivida, ou não, do casal Ed e Flo ✍🏻 Ian 👏🏻 @ciadasletras e viva o S XXI❤️ #educacao #respeitoediversidade #livro https://t.co/2UOBcds36I</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:39:45 +0000 2021</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Eles conversaram sobre o tema, dividiram experiências e compartilharam opiniões com o objetivo de desenvolver uma proposta de formação. #educação</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:36:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Como fala @ClaudiaCostin neste contexto desafiador precisamos olhar para o que sabemos que funciona e continuar investindo em isso. O Ensino Médio Integral tem mostrado impactos muito positivos em aprendizagem! Vamos melhorar a #educação no #Brasil expandindo a política! #EMI https://t.co/pWWPXXAL1s</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:30:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>🤷‍♀️ Como escolher qual profissão seguir?
 Confira 👉 https://t.co/VGWrc19GUQ
@@ -1516,204 +2589,372 @@
 #escolatecnicageracao #tecnicageracao #cursostecnicos #educacao #etg #empregabilidade #curso #cursotecnico #superacao #carreira #sucesso #conhecimento https://t.co/atj1jaMubU</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:10:05 +0000 2021</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>A sala de aula digital utiliza recursos tecnológicos para FAVORECER e POTENCIALIZAR a educação.
 Leia o artigo: https://t.co/nxSz1hGJ7n
 #MOVPLAN #BlogMOVPLAN #SalaDigital #SalaInterativa #Educacao #EnsinoHíbrido #EducaBrasil #EduTech #TerritórioDigital #ForEducationEdTech https://t.co/bYcEffXSSq</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:09:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>O Programa de Liderança da Escola Hub convoca talentos de todo o Brasil para ajudar a criar uma escola inovadora e liderar todo o processo: https://t.co/MpHRm8LnDk
 #educação #tecnologia #inovação #educador21 #escolahub #programadeliderançadaescolahub https://t.co/1844YHXThn</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:04:59 +0000 2021</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Esses globaloides gados da Nasa estão tentando enganar vocês! Acordem! #terraplana #Russia #Japao #Educacao https://t.co/xYdimXkhgx</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:01:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Semed e gestores de escolas em Manaus planejam volta às aulas
 #educação #manaus #compartilhe https://t.co/PVAnoeCD1O https://t.co/Jm5khQMvgK</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Fri Jul 23 20:00:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>A 2da Dose em preto e branco por respeito aos que não tiveram chance e direito à vida. Em cores agradeço #SUS e profissionais da saúde ❤ Ciência e nossa luta prevalece! ✊🏼🍀🙏🏼
 #esperança #vacinaparatodos  #coronavac #butantan #educação #vida #EleNão #ForaBolsonaro https://t.co/B8rruHdfzt</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:53:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>EDUCAÇÃO EM CABO FRIO | MPRJ celebra TAC para retomada das aulas presenciais em Cabo Frio
 https://t.co/j6IvnUjSV3
 #rc24h #cabofrio #educação #ofatonoato #jornalismo #mprj #regiãodoslagos</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:52:39 +0000 2021</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Participe com a Medical Harbour do Simpósio Virtual de inovação tecnológica para cursos da saúde, organizado pela @ADInstruments, nos dias 27 e 28 de julho.
 A inscrição é gratuita pelo link: https://t.co/n9CAUOxDVh
 #simpósio #educação #educaçãomédica #Anatomi https://t.co/AbowonZfcL</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:42:58 +0000 2021</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Eu pensando na geração futura e os professores de história...Imagina os professores 🤭😬fascistas, negacionistas,antivacina, Bolsonaristas, destrutivos , cúmplices de genocida, alienados e fanáticos por um mito fake?😅🤔🤨🤭😬 eita ...🇧🇷  
  #educação #historia #24JForaBolsonaro https://t.co/rH7Iq3WGdV</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:39:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>São Gonçalo inscreve para curso de extensão jovens e adultos da EJA https://t.co/W5nFJe2nVe #EJA #curso #educação #Uerj</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:38:52 +0000 2021</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>São Gonçalo inscreve para curso de extensão jovens e adultos da EJA https://t.co/W5nFJe2nVe #SaoGoncalo #EJA #Educacao</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:26:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Alcance.Enem transmite aulas de preparação para o Enem neste sábado https://t.co/jv4GmuyvSw #ALECE #Educação</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:26:01 +0000 2021</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>+1 livro da @EDUEPB em formato digital!
 📗Práticas de ensino e tecnologias digitais
@@ -1721,70 +2962,126 @@
 #TecnologiaEducacional #Educomunicação #Educação #Digital #Ensino #Tecnologia #eBook #AcessoAberto #OpenAccess https://t.co/7RD0sZq1iX</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:24:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Entidades se unem em prol de projeto social
 https://t.co/HEIT0CKFGq
 #rondonia #ffer #cpf #goldobrasil #sociedade #cpfsocial #futebol #educacao https://t.co/pcNu4TlRWg</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:16:26 +0000 2021</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Prefeitura do Natal divulga resultado da seleção para educador infantil e professor #educacao #prefeituradenatal #natal #professores 
 https://t.co/rQEnG4kz97</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:10:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Os alunos da EE Prof. Manoel Ferraz, no Jd. Santa Maria, terão ensino em tempo integral a partir do próximo ano. Esta é mais uma importante conquista para nossos estudantes de Bom Jesus dos Perdões! Saiba mais: https://t.co/R2GPkHu6D0
 #EdmirChedid #Educação #BomJesusDosPerdões https://t.co/vaugH7ZBKS</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:09:11 +0000 2021</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Acesse https://t.co/oOnTuuR8VE e saiba mais!
 .
@@ -1794,18 +3091,32 @@
 . https://t.co/o43RYvx7ar</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:09:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Acesse https://t.co/TNKW9qUdoA e saiba mais!
 .
@@ -1815,18 +3126,32 @@
 . https://t.co/uIZclzSxnD</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:08:54 +0000 2021</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Acesse https://t.co/O0TBv5Mj7m e saiba mais!
 .
@@ -1836,70 +3161,126 @@
 . https://t.co/8gWrfZbiVu</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:08:29 +0000 2021</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>#Educação - Nomeações de professores do nível I e II da rede municipal foram publicadas pela Prefeitura.
 ➡ Quer saber mais? Então acessa 👇
  https://t.co/wLaput0pAA</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Fri Jul 23 19:06:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Aplicação do mínimo constitucional no ensino preocupa municípios
 Aplicação do mínimo constitucional no ensino preocupa municípios - Secretários municipais abriram a semana debatendo alternativas parao cumprimento legal da aplicação do mínimo  #educação
 https://t.co/30URPssaG7</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:43:51 +0000 2021</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Bharat Biotech, farmacêutica da Índia, produtora da Vacina contra COVID 19 Covaxin, anula contrato com a Precisa Medicamentos, envolvida no escândalo da propina na CPI da COVID.https://t.co/RTeVuplecU #Educação #Cultura #Arte #Economia #MeioAmbiente #Justiça #MPF #STF #STJ #PGR https://t.co/gcUcEjBekc</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:43:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Pista de skate será reinaugurada neste sábado
 .
@@ -1908,134 +3289,246 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista #portaldenoticias #revista #unick #sitedenotícias #saocaetano #educacao #grafite #pistadeskate #lazer #entretenimento</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:38:31 +0000 2021</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Senac Caxias do Sul recebe alunos que representarão o estado em torneio nacional: https://t.co/xhA8HW26Kc
 #mudandoavida #CompetiçõesSenac #educação #conhecimento https://t.co/0CedakVaWq</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:28:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>#Atenção : Você acompanha o desempenho de alguma empresa de capital aberto? Ou vem estudando algum ativo de perto? Se você respondeu “sim” para pelo menos uma dessas duas perguntas a Inversa tem quer te fazer um convite! Confira no anúncio abaixo 👇#relatório #economia #educação https://t.co/UtBLtrWx1K</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:28:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Ânima abre seleção para professores de três áreas em Guanambi https://t.co/MFRMyLoh3R #Destaques #Educação #Emprego https://t.co/F3SSUoU9RD</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:28:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>#Destaques #Educação #Emprego Ânima abre seleção para professores de três áreas em Guanambi https://t.co/iGHfyfEJlg https://t.co/gIPuh88Eg5</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:26:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>#Educação #Veranópolis | Administração Municipal de Nova Prata visita EMEF Prefeito Nagib Stella Elias | Saiba mais em https://t.co/WswI2EW6R3</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:18:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>📚 MEC pressiona pela retomada das aulas presenciais
 #pandemia #educacao #reaberturadasescolas #Covid_19 #redeestadual #redemunicipal #MEC
 Confira: 👉 https://t.co/K51GErxLeO https://t.co/hnYuwbdhpr</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:12:07 +0000 2021</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>“Tenho tão nítido o Brasil que pode ser, e há de ser, que me dói o Brasil que é” - Darcy Ribeiro, tamo junto nesse misto de consciência e dor… 
 #darcyribeiro #educacao #quepaiseesse #forabolsonaro</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Fri Jul 23 18:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>O objetivo é oferecer à comunidade escolar do município um melhor conforto e, para isso, algumas das unidades vão passar por reformas amplas, com troca de telhados, piso e sistema elétrico, além de nova pintura. ❤
 https://t.co/kXNOz6NTNB
@@ -2045,18 +3538,32 @@
 #investimento</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:18:38 +0000 2021</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Formação em Psicanálise
 Venha para o Miesperanza!
@@ -2071,18 +3578,32 @@
 #posgraduação #psicopedagogia #educação #radiowebmiesperanza #psicanalise #miesperanza #freud #lacan #winnicott #jung #brasil https://t.co/zUzTlXYaAR</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:16:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Pós-graduação
 -Psicanálise
@@ -2099,18 +3620,32 @@
 #posgraduação #psicopedagogia #educação #psicanalise #miesperanza #freud #lacan https://t.co/ja1eu380MT</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:15:02 +0000 2021</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Aulas presenciais da rede municipal voltam em 16 de agosto
 https://t.co/HkGZf4jd5j
@@ -2118,18 +3653,32 @@
 #jornaldamanha #jornaldamanhamarilia #educacao #educacaomarilia https://t.co/n81VTNpqgg</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:40 +0000 2021</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Acesse https://t.co/O0TBv5Mj7m e saiba mais!
 .
@@ -2138,18 +3687,32 @@
 . https://t.co/vy1xiXehxh</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Acesse https://t.co/TNKW9qUdoA e saiba mais!
 .
@@ -2158,18 +3721,32 @@
 . https://t.co/6i5s5OP0kQ</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:25 +0000 2021</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Acesse https://t.co/oOnTuuR8VE e saiba mais!
 .
@@ -2178,104 +3755,188 @@
 . https://t.co/uAzAmIC6Ou</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:07:04 +0000 2021</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Não deixe para depois! Inscreva-se gratuitamente pelo site:
 https://t.co/98KzJstklK 💙
 #SemanaDaEducaçãoDeUbatuba #CuidandoDoFuturo #Educação #Ubatuba https://t.co/ndbC2HqaTD</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:04:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Inscreva-se gratuitamente e participe pelo link:
 https://t.co/4irJVHD9IV
 #InfiniteLearning #Educação #VitaeBrasil</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Fri Jul 23 17:00:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Um retorno temerário às aulas presenciais, sendo que nem metade da população está vacinada e já temos casos da variante delta que pode muito bem se alastrar para o restante do país. 
 .
 #educação #mec #governobolsonaro #aulaspresenciais #Brasil</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Fri Jul 23 16:50:34 +0000 2021</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>🎧Ouça Rádio 👉 😷 Enade 2021: inscrições vão até o dia 8 de agosto https://t.co/Kv8q18v0ho 🎧 Ouça Rádio 👉 #Educação #AraraquaraNews #Araraquara</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Fri Jul 23 16:49:16 +0000 2021</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>#Educação #RioGrandeDoSul | Inscrições e pré-matrículas para o segundo semestre do ano letivo da rede estadual se encerram neste domingo (25) | Saiba mais em https://t.co/4wZxCNcqhm</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Fri Jul 23 16:35:19 +0000 2021</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>São Bernardo retorna aulas presenciais em agosto
 .
@@ -2284,18 +3945,32 @@
 #revistaunick #noticias #noticiasdoabc #grandeabc #abcpaulista #portaldenoticias #revista #unick #sitedenotícias #revistaonline #revistaimpressa #educacao #saobernardo #retomada #aulas</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Fri Jul 23 16:28:08 +0000 2021</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>O esporte nos ensina sobre o esforço. (segue a thread)
 Do livro “Repensar a Educação” de Inger Enkvist.
@@ -2303,69 +3978,125 @@
 #olimpiadas #olimpíadas #iniciodasolimpiadas #aberturaolimpiadas #esporte #esforço #educação #ingerenkvist #bunkereditorial https://t.co/3eVkPfTjWs</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Fri Jul 23 16:20:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Conheça o projeto que está transformando a #Educação, a #Saúde e a realidade de milhares de pessoas em uma cidade brasileira. Um modelo de parceria adotado em mais de 70 países. Acesse: https://t.co/ruapbMEmZu
 #oec #ParceriaPublicoPrivada #PPP #GestaoPublica #PPPsocial #esg</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:49:42 +0000 2021</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Vamos em frente! 🤜🏽🤛🏽 
 #Educação #Magistério #Trabalhadores #VilaVelha #EspiritoSanto #Brasil</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:46:49 +0000 2021</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Na manhã de hoje estive no gabinete do presidente Egídio Beckhauser, juntamente com a Comissão de Luta pela valorização dos professores ACT´s, onde discutimos sobre a necessidade de valorizar esses profissionais.
 #educacao #sc #blumenau #professores #vereador #luta #valorizar https://t.co/Bl0RafCGYe</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:44:27 +0000 2021</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>O cinema, ao longo dos anos, se fez como fonte de reflexões construtivas. Por isso, separamos 12 dicas de filmes para refletir sobre educação.
 .
@@ -2376,66 +4107,122 @@
 #filmes #educacao https://t.co/sNURDbpyR3</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:28:12 +0000 2021</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>#EDUCAÇÃO DE #IRECÊ É DESTAQUE EM EVENTO NACIONAL https://t.co/2246IFpf2z Além de apresentar desafios da rede municipal, Elmo Vaz defende modelo de ensino com interação entre comunidade escolar e sociedade. @PSBNacional40 @FabiolaMansur_ @TodosEducacao @MarceloFreixo @JoaoCampos https://t.co/UMCtPhzPmm</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:20:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Aulas presenciais na rede municipal de Guanambi devem voltar em outubro https://t.co/7OZ6WRafsq #Destaques #Educação #GuanambieRegião https://t.co/Y6u0Pw8wd3</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:20:33 +0000 2021</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>#Destaques #Educação #GuanambieRegião Aulas presenciais na rede municipal de Guanambi devem voltar em outubro https://t.co/SjAg2gKj9g https://t.co/WGt8S0DXjb</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:11:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Kashe Quest é uma jovem com QI de 146. Ela já é capaz de contar até 100, compreender palavras incomuns, se comunicar pela língua de sinais e ter uma super memória. 
 Saiba mais: https://t.co/CiIdBE4Kax
@@ -2443,18 +4230,32 @@
 #educacao #educacaoinfantil #mensa https://t.co/hM0tg4eM7S</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:05:24 +0000 2021</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Confira: 
 Protocolo de retorno: https://t.co/BjQaB9TGNb
@@ -2462,36 +4263,64 @@
 #PrefeituraDeMariana #MarianaMG #SecretariaDeGoverno #ComunicaçãodeMariana #Educação #VoltaasAulas</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:00:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>#Educação - IFRS disponibiliza cursos EAD gratuitos na área de Ciências Exatas e Aplicadas.
 ➡ Quer saber mais? Então acessa 👇
 https://t.co/1qb9RxrEHC</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:00:23 +0000 2021</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Ontem concluímos nosso penúltimo curso do Intensivo Online de Férias, Planejamento Reverso, ministrado por Elisângela Sales. Agradecemos à dedicação do grupo de educadores que esteve conosco!
 .
@@ -2499,36 +4328,64 @@
 #tríadeeducacional #ensinohíbrido #metodologiasativas #educadores #educação https://t.co/E2iAjwzUYu</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:00:21 +0000 2021</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>E aí, qual é a sua missão? Aceita?
 💚 Faça parte do movimento que quer práticas educacionais + criativas, mão na massa e relevantes para TODOS: https://t.co/p2o6alpHsB
 #rbac #aprendizagemcriativa #educação https://t.co/lUB5aDsPyf</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Fri Jul 23 15:00:03 +0000 2021</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Um barco feito para despertar a imaginação da criança e navegar em águas mais profundas.
 Compre Aqui:
@@ -2536,154 +4393,280 @@
 #brinquedos #brinquedoseducativos #brinquedospedagógicos #educação #educaçãoinfantil https://t.co/YImGx6n6OG</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:54:38 +0000 2021</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Pró-reitora de Graduação avalia que situação pode mudar de acordo com cenário da pandemia na região.
 #cbnlondrina #londrina #educacao
 https://t.co/zhJPReujwA</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:30:00 +0000 2021</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>🧒🏿🧒🏻🧒🏾🧒🏼 Que tal aprender sobre os direitos da #criança e do #adolescente? Confira a #playlist especial no canal do #YouTube da #ESMP! Tem debates sobre #educação, #CombateAoTrabalhoInfantil, atuação do #ConselhoMunicipal, a série #ECA 30 anos. Confira: https://t.co/7Sgsyx7Ivf</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:26:13 +0000 2021</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>o ministério da #EDUCAÇÃO da #CHINA criou uma divisão para supervisionar as plataformas de #EDTECH e... parecece que está considerando pedir às empresas que oferecem TUTORIA escolar que se tornem SEM fins lucrativos: https://t.co/fM9ICSS8X1.
 o mercado de edtech, lá, é U$S100B... https://t.co/PlJ6sd4ji7</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:24:41 +0000 2021</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>O trabalho deverá ser executado junto às secretarias municipais de Saúde e Educação,  #SintepMT, Conselho Municipal de Educação e comunidade escolar. https://t.co/3QNiL6xFTz #RecomendaçãoConjunta #Educação #VoltaÀsAulas #RetornoàsAtividades
 #MPMT #ReaberturadasEscolasPúblicas https://t.co/UFt5ql2avf</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:23:44 +0000 2021</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Fazendo uma rápida pesquisa, sem muito aprofundamento, percebemos que a educação está diretamente ligada aos atletas olímpicos. Mas, aqui no Brasil isso não é uma condição prioritária! #Olympics2021 #Educacao #mudavidas</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:19:58 +0000 2021</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Queria saber da secretária Janaina Audino mais detalhes desta informação apresentada pela @SMED_POA na formação da rede municipal onde afirmou que as crianças evadem das escolas porque não gostam dos professores. Esta é a resposta oficial da secretária para os problemas?#Educacao</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:11:35 +0000 2021</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Semas realiza capacitação dos servidores
 https://t.co/NnKaMPmR96
 #jiparana #jovemvilela #semas #entregalegal #capacitacao #educacao https://t.co/coiWs2KC99</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:07:32 +0000 2021</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Prefeitura diz que professores de Salvador estarão totalmente imunizados até dia 28.
 #prefeitura #professores #salvador #imunizados #VacinaParaTodos #2dose #aulas #educacao #faroldabahia
 https://t.co/040npv9a4W</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:06:12 +0000 2021</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Prefeitura de Caldas Novas contrata profissionais da Educação
 Matéria completa no link. 👇
@@ -2691,52 +4674,94 @@
 #CaldasNovas #Educacao https://t.co/CksoszE6oL</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:01:14 +0000 2021</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Quais técnicas você usa para melhorar os estudos? 😀 Conta pra gente!
 Quer conhecer mais? Clica no link ➡ https://t.co/SZNRlAuiUn
 #EvangelizarEnsina #Educação #Estudos #TVEvangelizar https://t.co/GY4VpFL53K</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Fri Jul 23 14:00:06 +0000 2021</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>#Educação ...Você sabia que o ensino superior é comumente alvo de golpes de phishing?. Neste vídeo https://t.co/JDAdRERXTX você aprenderá como pode proporcionar uma experiência aprimorada e segura para os estudantes. #Tecnologia #Conectividade https://t.co/QVbKfzuqEt</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Fri Jul 23 13:45:43 +0000 2021</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Lembrando que amanhã nossa luta é na rua!
 Concentração na praça da saudade as 15hrs!
@@ -2744,71 +4769,127 @@
 #ForaBolsonaroCorrupto #ForaBolsonaro #VacinaSim #Educacao https://t.co/3tQg259hPm</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Fri Jul 23 13:39:43 +0000 2021</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Bom dia!
 Confira as principais notícias da educação no Brasil na nossa thread:
 #Educação #Brasil</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Fri Jul 23 13:38:48 +0000 2021</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Escrevo neste mês para o Entretanto Educação da Pearson Brasil sobre as crianças desse período pandêmico, já estigmatizadas como Geração C. 
 #educacao #geracaoc #COVID19
 https://t.co/7pC8RczRfk</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Fri Jul 23 13:31:15 +0000 2021</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Prefeitura de Jesuânia anuncia retorno das aulas presenciais https://t.co/AG87cBREvN 
 #jesuania #aulas #educação #presencial</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>Fri Jul 23 13:22:36 +0000 2021</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>#aquiemaislegal #montesionense #educação #ensinodequalidade #diversão #minasgerais 😀
 https://t.co/fDmkMLFykl
@@ -2816,136 +4897,21 @@
 Prq Dnª Antonieta - Monte Sião https://t.co/quBCyfrAFQ</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 13:10:15 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Acesse https://t.co/oOnTuuR8VE e saiba mais!
-.
-.
-#Notícias #Política #Salvador #Bahia #PrefeituradeSalvador #BrunoReis #PrefeitoBrunoReis #GovernodaBahia #RuiCosta #CâmaraMunicipal #ALBA #AssembleiaLegislativa #Educação #Cultura #PolíticaBahia #PolíticaSalvador #Economia https://t.co/lkNevr34H6</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 13:10:06 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Acesse https://t.co/TNKW9qUdoA e saiba mais!
-.
-.
-#Notícias #Política #Salvador #Bahia #PrefeituradeSalvador #BrunoReis #PrefeitoBrunoReis #GovernodaBahia #RuiCosta #CâmaraMunicipal #ALBA #AssembleiaLegislativa #Educação #Cultura #PolíticaBahia #PolíticaSalvador #Economia https://t.co/OasXgS7IkG</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 13:09:58 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Acesse https://t.co/O0TBv5Mj7m e saiba mais!
-.
-.
-#Notícias #Política #Salvador #Bahia #PrefeituradeSalvador #BrunoReis #PrefeitoBrunoReis #GovernodaBahia #RuiCosta #CâmaraMunicipal #ALBA #AssembleiaLegislativa #Educação #Cultura #PolíticaBahia #PolíticaSalvador #Economia https://t.co/hGWESP4FGq</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 13:09:29 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>https://t.co/JIcCWdwqvz
-Serão contemplados 8.330 alunos matriculados em escolas da Rede Pública Estadual no Ensino Médio Regular e Médio noturno (EJA). #folhadoes #espiritosanto #educação https://t.co/gv6WHot7kH</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 12:58:40 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Entre os cursos reconhecidos estão turismo, gastronomia e designer de moda
-@IFMT @MEC_Comunicacao #Educacao Leia Mais
-https://t.co/PNh7bKQXdd</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 12:52:21 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Use a máscara, higienize as mãos, mantenha o distanciamento social dentro e fora das salas de aula e volte a freqüentar a escola. Sim à volta às aulas presenciais!
-#aulapresencial #Educacao #Covid #laveasmaos #escola #ensino</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Fri Jul 23 12:42:00 +0000 2021</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>@DoveBR vai #portal2023 
-#educação #criancaesperanca 
-Vai de Dove é uma empresa Brasileira.
-Vai de Dove.
-@BandTV @RedeTV @SBTonline @tvglobo @SonDakikaTurk @UlrichJvV 🌍🌎🌏🇧🇷⚘☄🏜🏝🏟🏦🌄🚔🚓🚒🚛🚜🪂⏳🕧🌟🌪🌩🌨🌧☃️🌈💧🌊🌬🕊🕊🕊🕊🕊🕊🕊 https://t.co/5zoUHBzwaZ</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
